--- a/my-app/regionseng/11/agriculture/2. Production of permanent crops.xlsx
+++ b/my-app/regionseng/11/agriculture/2. Production of permanent crops.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\მცხეთა-მთიანეთი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\თბილისი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="24">
   <si>
     <t>Nuts</t>
   </si>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">Lemon </t>
   </si>
   <si>
+    <t>0.0 Negligible magnitude.</t>
+  </si>
+  <si>
     <t>Plum, prune and damson</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
   </si>
   <si>
     <r>
-      <t>Production of particular fruit types in Mtskheta-Mtianeti Region</t>
+      <t xml:space="preserve">Production of particular fruit types in Tbilisi </t>
     </r>
     <r>
       <rPr>
@@ -71,16 +74,13 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (ths. tons)</t>
+      <t>(ths. tons)</t>
     </r>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>0.0 Negligible magnitude.</t>
-  </si>
-  <si>
     <t>"-" Data is not available due to small sample size of the survey. Survey sample size has been increased since 2016.</t>
   </si>
   <si>
@@ -94,7 +94,7 @@
   </si>
   <si>
     <r>
-      <t>Production of fruit and tea leaves in Mtskheta-Mtianeti Region</t>
+      <t>Production of fruit and tea leaves in Tbilisi</t>
     </r>
     <r>
       <rPr>
@@ -142,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +213,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -280,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -292,46 +285,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,33 +624,34 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" style="1" customWidth="1"/>
-    <col min="2" max="17" width="8.7109375" style="13" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-    </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
       </c>
@@ -726,415 +705,413 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="14">
-        <v>1</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="P3" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>4</v>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="C4" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="L4" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="N4" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P4" s="10">
         <v>0.6</v>
       </c>
-      <c r="P4" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1.2</v>
+      <c r="Q4" s="10">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0.4</v>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0.3</v>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="M7" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="N7" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="O7" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P7" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>4.9000000000000004</v>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>14</v>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>14</v>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>2006</v>
       </c>
@@ -1189,52 +1166,52 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="10">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N13" s="10">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="O13" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P13" s="10">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" s="10">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1242,317 +1219,317 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
         <v>0.1</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0.2</v>
+        <v>15</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>0.2</v>
+        <v>15</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0.2</v>
+        <v>15</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
         <v>0.1</v>
       </c>
-      <c r="K19" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M19" s="11">
+      <c r="N19" s="10">
         <v>0.1</v>
       </c>
-      <c r="N19" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="P19" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>0.4</v>
+      <c r="O19" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1560,52 +1537,52 @@
         <v>4</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0.1</v>
+        <v>15</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1613,52 +1590,52 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1666,52 +1643,52 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1719,124 +1696,124 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="18"/>
-    </row>
-    <row r="26" spans="1:17" s="8" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
